--- a/upload/pib-per-capita.xlsx
+++ b/upload/pib-per-capita.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Projects/dataset-template/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1362522A-74CD-3149-8449-2CF887112BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7791F2B-550E-1B42-9A29-45F95AA84D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pib-per-capita" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -873,14 +873,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -898,7 +901,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1">
         <v>1728214.11</v>
